--- a/output/NIRVANA_08817499000136.xlsx
+++ b/output/NIRVANA_08817499000136.xlsx
@@ -1934,10 +1934,10 @@
         <v>44165</v>
       </c>
       <c r="B141">
-        <v>2.914396</v>
+        <v>2.9019647</v>
       </c>
       <c r="C141">
-        <v>0.02439675703667654</v>
+        <v>0.02114348797402932</v>
       </c>
     </row>
   </sheetData>

--- a/output/NIRVANA_08817499000136.xlsx
+++ b/output/NIRVANA_08817499000136.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>NIRVANA FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:B141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>39933</v>
       </c>
@@ -411,1533 +405,1116 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>39964</v>
       </c>
       <c r="B3">
         <v>0.06641059999999999</v>
       </c>
-      <c r="C3">
-        <v>0.06641059999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>39994</v>
       </c>
       <c r="B4">
-        <v>0.09532589999999996</v>
-      </c>
-      <c r="C4">
         <v>0.02711460294937051</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>40025</v>
       </c>
       <c r="B5">
-        <v>0.1270954</v>
-      </c>
-      <c r="C5">
         <v>0.02900460949567618</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>40056</v>
       </c>
       <c r="B6">
-        <v>0.1382524999999999</v>
-      </c>
-      <c r="C6">
         <v>0.009898984593495808</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>40086</v>
       </c>
       <c r="B7">
-        <v>0.1615428000000001</v>
-      </c>
-      <c r="C7">
         <v>0.02046145297286861</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>40117</v>
       </c>
       <c r="B8">
-        <v>0.1662173</v>
-      </c>
-      <c r="C8">
         <v>0.004024388942017287</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>40147</v>
       </c>
       <c r="B9">
-        <v>0.1757757</v>
-      </c>
-      <c r="C9">
         <v>0.00819607117815857</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>40178</v>
       </c>
       <c r="B10">
-        <v>0.1866909999999999</v>
-      </c>
-      <c r="C10">
         <v>0.009283488338804657</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>40209</v>
       </c>
       <c r="B11">
-        <v>0.1994741</v>
-      </c>
-      <c r="C11">
         <v>0.01077205439326678</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>40237</v>
       </c>
       <c r="B12">
-        <v>0.2069183999999999</v>
-      </c>
-      <c r="C12">
         <v>0.006206303245730682</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>40268</v>
       </c>
       <c r="B13">
-        <v>0.2260740999999999</v>
-      </c>
-      <c r="C13">
         <v>0.01587157839336939</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>40298</v>
       </c>
       <c r="B14">
-        <v>0.2217193</v>
-      </c>
-      <c r="C14">
         <v>-0.003551824477819099</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>40329</v>
       </c>
       <c r="B15">
-        <v>0.218675</v>
-      </c>
-      <c r="C15">
         <v>-0.002491816246170453</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>40359</v>
       </c>
       <c r="B16">
-        <v>0.2344090999999999</v>
-      </c>
-      <c r="C16">
         <v>0.01291082528155574</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>40390</v>
       </c>
       <c r="B17">
-        <v>0.2355307</v>
-      </c>
-      <c r="C17">
         <v>0.0009086128739654864</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>40421</v>
       </c>
       <c r="B18">
-        <v>0.2505899</v>
-      </c>
-      <c r="C18">
         <v>0.01218844663269003</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>40451</v>
       </c>
       <c r="B19">
-        <v>0.2514263000000001</v>
-      </c>
-      <c r="C19">
         <v>0.0006688043778380059</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>40482</v>
       </c>
       <c r="B20">
-        <v>0.2712589999999999</v>
-      </c>
-      <c r="C20">
         <v>0.01584807671055</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>40512</v>
       </c>
       <c r="B21">
-        <v>0.2371216</v>
-      </c>
-      <c r="C21">
         <v>-0.02685322188476136</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>40543</v>
       </c>
       <c r="B22">
-        <v>0.257498</v>
-      </c>
-      <c r="C22">
         <v>0.01647081418673801</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>40574</v>
       </c>
       <c r="B23">
-        <v>0.2460973</v>
-      </c>
-      <c r="C23">
         <v>-0.0090661774412365</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>40602</v>
       </c>
       <c r="B24">
-        <v>0.2590135</v>
-      </c>
-      <c r="C24">
         <v>0.01036532219434227</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>40633</v>
       </c>
       <c r="B25">
-        <v>0.2792429000000001</v>
-      </c>
-      <c r="C25">
         <v>0.01606765932215981</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>40663</v>
       </c>
       <c r="B26">
-        <v>0.2743534000000001</v>
-      </c>
-      <c r="C26">
         <v>-0.003822182636307736</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>40694</v>
       </c>
       <c r="B27">
-        <v>0.2991649000000001</v>
-      </c>
-      <c r="C27">
         <v>0.01946987389840205</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>40724</v>
       </c>
       <c r="B28">
-        <v>0.3015831</v>
-      </c>
-      <c r="C28">
         <v>0.001861349548467617</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>40755</v>
       </c>
       <c r="B29">
-        <v>0.3083018</v>
-      </c>
-      <c r="C29">
         <v>0.005161944711789879</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>40786</v>
       </c>
       <c r="B30">
-        <v>0.374455</v>
-      </c>
-      <c r="C30">
         <v>0.05056417410722824</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>40816</v>
       </c>
       <c r="B31">
-        <v>0.4082353999999999</v>
-      </c>
-      <c r="C31">
         <v>0.02457730518641932</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>40847</v>
       </c>
       <c r="B32">
-        <v>0.3976559</v>
-      </c>
-      <c r="C32">
         <v>-0.007512593420105684</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>40877</v>
       </c>
       <c r="B33">
-        <v>0.4559043</v>
-      </c>
-      <c r="C33">
         <v>0.04167578014016193</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>40908</v>
       </c>
       <c r="B34">
-        <v>0.4634933999999999</v>
-      </c>
-      <c r="C34">
         <v>0.005212636572335061</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>40939</v>
       </c>
       <c r="B35">
-        <v>0.4837817</v>
-      </c>
-      <c r="C35">
         <v>0.01386292551780555</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>40968</v>
       </c>
       <c r="B36">
-        <v>0.5239638</v>
-      </c>
-      <c r="C36">
         <v>0.02708087045419139</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>40999</v>
       </c>
       <c r="B37">
-        <v>0.5712675</v>
-      </c>
-      <c r="C37">
         <v>0.03103991052805855</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>41029</v>
       </c>
       <c r="B38">
-        <v>0.6504760999999999</v>
-      </c>
-      <c r="C38">
         <v>0.05041063981785388</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>41060</v>
       </c>
       <c r="B39">
-        <v>0.7120034</v>
-      </c>
-      <c r="C39">
         <v>0.03727851618087663</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>41090</v>
       </c>
       <c r="B40">
-        <v>0.7426170999999999</v>
-      </c>
-      <c r="C40">
         <v>0.01788179859923167</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>41121</v>
       </c>
       <c r="B41">
-        <v>0.7951661999999999</v>
-      </c>
-      <c r="C41">
         <v>0.03015527622218328</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>41152</v>
       </c>
       <c r="B42">
-        <v>0.8067514</v>
-      </c>
-      <c r="C42">
         <v>0.006453552879950752</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>41182</v>
       </c>
       <c r="B43">
-        <v>0.8250772</v>
-      </c>
-      <c r="C43">
         <v>0.01014295602593696</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>41213</v>
       </c>
       <c r="B44">
-        <v>0.8575712</v>
-      </c>
-      <c r="C44">
         <v>0.01780417836571524</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>41243</v>
       </c>
       <c r="B45">
-        <v>0.8782654999999999</v>
-      </c>
-      <c r="C45">
         <v>0.01114051509842517</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>41274</v>
       </c>
       <c r="B46">
-        <v>0.9026126000000001</v>
-      </c>
-      <c r="C46">
         <v>0.01296254443261624</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>41305</v>
       </c>
       <c r="B47">
-        <v>0.9153853999999999</v>
-      </c>
-      <c r="C47">
         <v>0.006713295181583367</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>41333</v>
       </c>
       <c r="B48">
-        <v>0.9135903999999999</v>
-      </c>
-      <c r="C48">
         <v>-0.0009371482104855167</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>41364</v>
       </c>
       <c r="B49">
-        <v>0.9064036</v>
-      </c>
-      <c r="C49">
         <v>-0.003755662653825986</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>41394</v>
       </c>
       <c r="B50">
-        <v>0.9378356000000001</v>
-      </c>
-      <c r="C50">
         <v>0.016487589511476</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>41425</v>
       </c>
       <c r="B51">
-        <v>0.9090252000000001</v>
-      </c>
-      <c r="C51">
         <v>-0.01486730866127139</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>41455</v>
       </c>
       <c r="B52">
-        <v>0.9150347999999999</v>
-      </c>
-      <c r="C52">
         <v>0.003147994065243243</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>41486</v>
       </c>
       <c r="B53">
-        <v>0.9376754</v>
-      </c>
-      <c r="C53">
         <v>0.01182255278076405</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>41517</v>
       </c>
       <c r="B54">
-        <v>0.9328277</v>
-      </c>
-      <c r="C54">
         <v>-0.002501812223038025</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>41547</v>
       </c>
       <c r="B55">
-        <v>0.9145055</v>
-      </c>
-      <c r="C55">
         <v>-0.009479479210692254</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>41578</v>
       </c>
       <c r="B56">
-        <v>0.9294574</v>
-      </c>
-      <c r="C56">
         <v>0.007809797360206039</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>41608</v>
       </c>
       <c r="B57">
-        <v>0.9542387999999999</v>
-      </c>
-      <c r="C57">
         <v>0.01284371450750865</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>41639</v>
       </c>
       <c r="B58">
-        <v>0.9695260000000001</v>
-      </c>
-      <c r="C58">
         <v>0.007822585448615582</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>41670</v>
       </c>
       <c r="B59">
-        <v>0.9880381</v>
-      </c>
-      <c r="C59">
         <v>0.009399266625573777</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>41698</v>
       </c>
       <c r="B60">
-        <v>0.9856969</v>
-      </c>
-      <c r="C60">
         <v>-0.001177643426451436</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>41729</v>
       </c>
       <c r="B61">
-        <v>0.9945271</v>
-      </c>
-      <c r="C61">
         <v>0.004446902243741224</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>41759</v>
       </c>
       <c r="B62">
-        <v>0.9972458</v>
-      </c>
-      <c r="C62">
         <v>0.001363080000266637</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>41790</v>
       </c>
       <c r="B63">
-        <v>1.0164852</v>
-      </c>
-      <c r="C63">
         <v>0.009632965556868323</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>41820</v>
       </c>
       <c r="B64">
-        <v>1.0195231</v>
-      </c>
-      <c r="C64">
         <v>0.001506532257216531</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>41851</v>
       </c>
       <c r="B65">
-        <v>1.0492685</v>
-      </c>
-      <c r="C65">
         <v>0.01472892288283334</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>41882</v>
       </c>
       <c r="B66">
-        <v>1.103356</v>
-      </c>
-      <c r="C66">
         <v>0.02639356433771356</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>41912</v>
       </c>
       <c r="B67">
-        <v>1.1016661</v>
-      </c>
-      <c r="C67">
         <v>-0.0008034303275336052</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>41943</v>
       </c>
       <c r="B68">
-        <v>1.0769611</v>
-      </c>
-      <c r="C68">
         <v>-0.0117549595532801</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>41973</v>
       </c>
       <c r="B69">
-        <v>1.0995534</v>
-      </c>
-      <c r="C69">
         <v>0.01087757493387809</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>42004</v>
       </c>
       <c r="B70">
-        <v>1.1115989</v>
-      </c>
-      <c r="C70">
         <v>0.005737172486301123</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>42035</v>
       </c>
       <c r="B71">
-        <v>1.1728145</v>
-      </c>
-      <c r="C71">
         <v>0.02899016475145899</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>42063</v>
       </c>
       <c r="B72">
-        <v>1.2199391</v>
-      </c>
-      <c r="C72">
         <v>0.02168827573637788</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>42094</v>
       </c>
       <c r="B73">
-        <v>1.2205262</v>
-      </c>
-      <c r="C73">
         <v>0.0002644667144247048</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>42124</v>
       </c>
       <c r="B74">
-        <v>1.1879389</v>
-      </c>
-      <c r="C74">
         <v>-0.01467548547727127</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>42155</v>
       </c>
       <c r="B75">
-        <v>1.268416</v>
-      </c>
-      <c r="C75">
         <v>0.03678215145770314</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>42185</v>
       </c>
       <c r="B76">
-        <v>1.2554022</v>
-      </c>
-      <c r="C76">
         <v>-0.005736954773727709</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>42216</v>
       </c>
       <c r="B77">
-        <v>1.3691721</v>
-      </c>
-      <c r="C77">
         <v>0.0504432867893807</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>42247</v>
       </c>
       <c r="B78">
-        <v>1.2914103</v>
-      </c>
-      <c r="C78">
         <v>-0.03282235174050896</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>42277</v>
       </c>
       <c r="B79">
-        <v>1.1851938</v>
-      </c>
-      <c r="C79">
         <v>-0.04635420378445532</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>42308</v>
       </c>
       <c r="B80">
-        <v>1.2166974</v>
-      </c>
-      <c r="C80">
         <v>0.01441684485833705</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>42338</v>
       </c>
       <c r="B81">
-        <v>1.2484115</v>
-      </c>
-      <c r="C81">
         <v>0.01430691442142695</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>42369</v>
       </c>
       <c r="B82">
-        <v>1.2877905</v>
-      </c>
-      <c r="C82">
         <v>0.01751414276256802</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>42400</v>
       </c>
       <c r="B83">
-        <v>1.4061951</v>
-      </c>
-      <c r="C83">
         <v>0.05175500116815779</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>42429</v>
       </c>
       <c r="B84">
-        <v>1.4494353</v>
-      </c>
-      <c r="C84">
         <v>0.01797036325109302</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>42460</v>
       </c>
       <c r="B85">
-        <v>1.3567302</v>
-      </c>
-      <c r="C85">
         <v>-0.03784753979825484</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>42490</v>
       </c>
       <c r="B86">
-        <v>1.4288541</v>
-      </c>
-      <c r="C86">
         <v>0.03060337581281058</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>42521</v>
       </c>
       <c r="B87">
-        <v>1.4245143</v>
-      </c>
-      <c r="C87">
         <v>-0.001786768501245262</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>42551</v>
       </c>
       <c r="B88">
-        <v>1.5514342</v>
-      </c>
-      <c r="C88">
         <v>0.05234858792130059</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>42582</v>
       </c>
       <c r="B89">
-        <v>1.5840341</v>
-      </c>
-      <c r="C89">
         <v>0.01277708827450841</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>42613</v>
       </c>
       <c r="B90">
-        <v>1.6344352</v>
-      </c>
-      <c r="C90">
         <v>0.01950481226234602</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>42643</v>
       </c>
       <c r="B91">
-        <v>1.6806379</v>
-      </c>
-      <c r="C91">
         <v>0.01753799068582129</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>42674</v>
       </c>
       <c r="B92">
-        <v>1.7629836</v>
-      </c>
-      <c r="C92">
         <v>0.030718695725372</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>42704</v>
       </c>
       <c r="B93">
-        <v>1.722824</v>
-      </c>
-      <c r="C93">
         <v>-0.01453486730793474</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>42735</v>
       </c>
       <c r="B94">
-        <v>1.7619331</v>
-      </c>
-      <c r="C94">
         <v>0.01436343296518605</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>42766</v>
       </c>
       <c r="B95">
-        <v>1.7901154</v>
-      </c>
-      <c r="C95">
         <v>0.01020383151206672</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>42794</v>
       </c>
       <c r="B96">
-        <v>1.8625113</v>
-      </c>
-      <c r="C96">
         <v>0.0259472780229808</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>42825</v>
       </c>
       <c r="B97">
-        <v>1.8776285</v>
-      </c>
-      <c r="C97">
         <v>0.005281097056280659</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>42855</v>
       </c>
       <c r="B98">
-        <v>1.914947</v>
-      </c>
-      <c r="C98">
         <v>0.01296849124200716</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>42886</v>
       </c>
       <c r="B99">
-        <v>1.8321168</v>
-      </c>
-      <c r="C99">
         <v>-0.02841567959897728</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>42916</v>
       </c>
       <c r="B100">
-        <v>1.9007765</v>
-      </c>
-      <c r="C100">
         <v>0.0242432444876568</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>42947</v>
       </c>
       <c r="B101">
-        <v>1.9562813</v>
-      </c>
-      <c r="C101">
         <v>0.01913446278953246</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>42978</v>
       </c>
       <c r="B102">
-        <v>2.012679</v>
-      </c>
-      <c r="C102">
         <v>0.01907724410393552</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>43008</v>
       </c>
       <c r="B103">
-        <v>2.0718191</v>
-      </c>
-      <c r="C103">
         <v>0.01963040204416067</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>43039</v>
       </c>
       <c r="B104">
-        <v>2.0338844</v>
-      </c>
-      <c r="C104">
         <v>-0.01234926236378964</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>43069</v>
       </c>
       <c r="B105">
-        <v>2.0487699</v>
-      </c>
-      <c r="C105">
         <v>0.004906416342033371</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>43100</v>
       </c>
       <c r="B106">
-        <v>2.1041472</v>
-      </c>
-      <c r="C106">
         <v>0.01816381747930529</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>43131</v>
       </c>
       <c r="B107">
-        <v>2.1464262</v>
-      </c>
-      <c r="C107">
         <v>0.01362016595089321</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>43159</v>
       </c>
       <c r="B108">
-        <v>2.168112</v>
-      </c>
-      <c r="C108">
         <v>0.006892200427265571</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>43190</v>
       </c>
       <c r="B109">
-        <v>2.2699379</v>
-      </c>
-      <c r="C109">
         <v>0.03214087759523654</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>43220</v>
       </c>
       <c r="B110">
-        <v>2.286631</v>
-      </c>
-      <c r="C110">
         <v>0.005105020495954848</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>43251</v>
       </c>
       <c r="B111">
-        <v>2.31276</v>
-      </c>
-      <c r="C111">
         <v>0.007950086273755819</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>43281</v>
       </c>
       <c r="B112">
-        <v>2.3694117</v>
-      </c>
-      <c r="C112">
         <v>0.01710105772829906</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>43312</v>
       </c>
       <c r="B113">
-        <v>2.3896003</v>
-      </c>
-      <c r="C113">
         <v>0.005991728467019897</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>43343</v>
       </c>
       <c r="B114">
-        <v>2.3879177</v>
-      </c>
-      <c r="C114">
         <v>-0.0004964007113169577</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>43373</v>
       </c>
       <c r="B115">
-        <v>2.4304917</v>
-      </c>
-      <c r="C115">
         <v>0.01256642096117044</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>43404</v>
       </c>
       <c r="B116">
-        <v>2.5618957</v>
-      </c>
-      <c r="C116">
         <v>0.03830471299493299</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>43434</v>
       </c>
       <c r="B117">
-        <v>2.5314607</v>
-      </c>
-      <c r="C117">
         <v>-0.008544607299983631</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>43465</v>
       </c>
       <c r="B118">
-        <v>2.4879418</v>
-      </c>
-      <c r="C118">
         <v>-0.01232320099158957</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>43496</v>
       </c>
       <c r="B119">
-        <v>2.5714426</v>
-      </c>
-      <c r="C119">
         <v>0.02393984899633361</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>43524</v>
       </c>
       <c r="B120">
-        <v>2.550869</v>
-      </c>
-      <c r="C120">
         <v>-0.005760585372420635</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>43555</v>
       </c>
       <c r="B121">
-        <v>2.4738807</v>
-      </c>
-      <c r="C121">
         <v>-0.02168153767429892</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>43585</v>
       </c>
       <c r="B122">
-        <v>2.5048812</v>
-      </c>
-      <c r="C122">
         <v>0.008923881582922455</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>43616</v>
       </c>
       <c r="B123">
-        <v>2.5413889</v>
-      </c>
-      <c r="C123">
         <v>0.01041624463619484</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>43646</v>
       </c>
       <c r="B124">
-        <v>2.5779124</v>
-      </c>
-      <c r="C124">
         <v>0.01031332650305661</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>43677</v>
       </c>
       <c r="B125">
-        <v>2.6345668</v>
-      </c>
-      <c r="C125">
         <v>0.01583448493596418</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>43708</v>
       </c>
       <c r="B126">
-        <v>2.4915674</v>
-      </c>
-      <c r="C126">
         <v>-0.03934427618719238</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>43738</v>
       </c>
       <c r="B127">
-        <v>2.5973124</v>
-      </c>
-      <c r="C127">
         <v>0.0302858252142002</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>43769</v>
       </c>
       <c r="B128">
-        <v>2.7052503</v>
-      </c>
-      <c r="C128">
         <v>0.03000515051180996</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>43799</v>
       </c>
       <c r="B129">
-        <v>2.6706191</v>
-      </c>
-      <c r="C129">
         <v>-0.009346521070384806</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>43830</v>
       </c>
       <c r="B130">
-        <v>2.8126721</v>
-      </c>
-      <c r="C130">
         <v>0.03870001112346411</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>43861</v>
       </c>
       <c r="B131">
-        <v>2.8789242</v>
-      </c>
-      <c r="C131">
         <v>0.01737681559345217</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>43890</v>
       </c>
       <c r="B132">
-        <v>2.838357</v>
-      </c>
-      <c r="C132">
         <v>-0.01045836368754005</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>43921</v>
       </c>
       <c r="B133">
-        <v>2.5005953</v>
-      </c>
-      <c r="C133">
         <v>-0.08799642659606699</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>43951</v>
       </c>
       <c r="B134">
-        <v>2.6798443</v>
-      </c>
-      <c r="C134">
         <v>0.05120529071155411</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>43982</v>
       </c>
       <c r="B135">
-        <v>2.823051</v>
-      </c>
-      <c r="C135">
         <v>0.03891651067954149</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>44012</v>
       </c>
       <c r="B136">
-        <v>2.8886657</v>
-      </c>
-      <c r="C136">
         <v>0.01716291516906265</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>44043</v>
       </c>
       <c r="B137">
-        <v>2.9997125</v>
-      </c>
-      <c r="C137">
         <v>0.02855653032864214</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>44074</v>
       </c>
       <c r="B138">
-        <v>3.0171336</v>
-      </c>
-      <c r="C138">
         <v>0.004355588057891824</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>44104</v>
       </c>
       <c r="B139">
-        <v>2.9070269</v>
-      </c>
-      <c r="C139">
         <v>-0.02740927013231531</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>44135</v>
       </c>
       <c r="B140">
-        <v>2.8211718</v>
-      </c>
-      <c r="C140">
         <v>-0.02197453516380954</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>44165</v>
       </c>
       <c r="B141">
-        <v>2.9019647</v>
-      </c>
-      <c r="C141">
-        <v>0.02114348797402932</v>
+        <v>0.02246559550135885</v>
       </c>
     </row>
   </sheetData>
